--- a/capiq_data/in_process_data/IQ168569.xlsx
+++ b/capiq_data/in_process_data/IQ168569.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85FA798-B959-4981-9F48-9901B50CDAC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590E06F4-9693-4FF7-B786-7AB703A42A43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"871372c6-70e4-43dc-b716-10e21f3d2217"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"185402ed-2fdc-4f24-a3f7-3197e91f9e1e"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>-98</v>
+        <v>47</v>
       </c>
       <c r="D2">
-        <v>5586</v>
+        <v>4859</v>
       </c>
       <c r="E2">
-        <v>738</v>
+        <v>1303</v>
       </c>
       <c r="F2">
-        <v>1286</v>
+        <v>1489</v>
       </c>
       <c r="G2">
-        <v>6838</v>
+        <v>5179</v>
       </c>
       <c r="H2">
-        <v>25088</v>
+        <v>26213</v>
       </c>
       <c r="I2">
-        <v>1156</v>
+        <v>1267</v>
       </c>
       <c r="J2">
-        <v>8756</v>
+        <v>4151</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>8780</v>
+        <v>6990</v>
       </c>
       <c r="O2">
-        <v>29033</v>
+        <v>19037</v>
       </c>
       <c r="P2">
-        <v>11136</v>
+        <v>6270</v>
       </c>
       <c r="Q2">
+        <v>-82</v>
+      </c>
+      <c r="R2">
+        <v>36891</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>7176</v>
+      </c>
+      <c r="U2">
+        <v>89</v>
+      </c>
+      <c r="V2">
+        <v>410</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>385</v>
+      </c>
+      <c r="Y2">
+        <v>1323</v>
+      </c>
+      <c r="Z2">
         <v>-34</v>
       </c>
-      <c r="R2">
-        <v>40543</v>
-      </c>
-      <c r="S2">
-        <v>78250</v>
-      </c>
-      <c r="T2">
-        <v>-3945</v>
-      </c>
-      <c r="U2">
-        <v>168</v>
-      </c>
-      <c r="V2">
-        <v>151</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>349</v>
-      </c>
-      <c r="Y2">
-        <v>497</v>
-      </c>
-      <c r="Z2">
-        <v>27</v>
-      </c>
       <c r="AA2">
-        <v>-98</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>-436</v>
+        <v>-43</v>
       </c>
       <c r="D3">
-        <v>5533</v>
+        <v>4760</v>
       </c>
       <c r="E3">
-        <v>922</v>
+        <v>1383</v>
       </c>
       <c r="F3">
-        <v>1031</v>
+        <v>1438</v>
       </c>
       <c r="G3">
-        <v>8825</v>
+        <v>4573</v>
       </c>
       <c r="H3">
-        <v>27113</v>
+        <v>26534</v>
       </c>
       <c r="I3">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="J3">
-        <v>9568</v>
+        <v>4669</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-323</v>
+        <v>-291</v>
       </c>
       <c r="N3">
-        <v>9853</v>
+        <v>6744</v>
       </c>
       <c r="O3">
-        <v>31062</v>
+        <v>19301</v>
       </c>
       <c r="P3">
-        <v>12118</v>
+        <v>6573</v>
       </c>
       <c r="Q3">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>-3949</v>
+        <v>7233</v>
       </c>
       <c r="U3">
-        <v>286</v>
+        <v>172</v>
       </c>
       <c r="V3">
-        <v>708</v>
+        <v>19</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>965</v>
+        <v>338</v>
       </c>
       <c r="Y3">
-        <v>588</v>
+        <v>1208</v>
       </c>
       <c r="Z3">
-        <v>-1185</v>
+        <v>758</v>
       </c>
       <c r="AA3">
-        <v>-436</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>-286</v>
+        <v>-507</v>
       </c>
       <c r="D4">
-        <v>6114</v>
+        <v>5583</v>
       </c>
       <c r="E4">
-        <v>945</v>
+        <v>1670</v>
       </c>
       <c r="F4">
-        <v>1168</v>
+        <v>1553</v>
       </c>
       <c r="G4">
-        <v>7997</v>
+        <v>5174</v>
       </c>
       <c r="H4">
-        <v>25787</v>
+        <v>29002</v>
       </c>
       <c r="I4">
-        <v>1291</v>
+        <v>1495</v>
       </c>
       <c r="J4">
-        <v>9428</v>
+        <v>5554</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9766</v>
+        <v>7894</v>
       </c>
       <c r="O4">
-        <v>30296</v>
+        <v>22262</v>
       </c>
       <c r="P4">
-        <v>11882</v>
+        <v>7780</v>
       </c>
       <c r="Q4">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>-4509</v>
+        <v>6740</v>
       </c>
       <c r="U4">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="V4">
-        <v>-55</v>
+        <v>866</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-170</v>
+        <v>697</v>
       </c>
       <c r="Y4">
-        <v>624</v>
+        <v>1613</v>
       </c>
       <c r="Z4">
-        <v>655</v>
+        <v>164</v>
       </c>
       <c r="AA4">
-        <v>-286</v>
+        <v>-507</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>-162</v>
+        <v>-414</v>
       </c>
       <c r="D5">
-        <v>6376</v>
+        <v>4816</v>
       </c>
       <c r="E5">
-        <v>925</v>
+        <v>1829</v>
       </c>
       <c r="F5">
-        <v>1335</v>
+        <v>813</v>
       </c>
       <c r="G5">
-        <v>6838</v>
+        <v>6081</v>
       </c>
       <c r="H5">
-        <v>24719</v>
+        <v>31840</v>
       </c>
       <c r="I5">
-        <v>1150</v>
+        <v>1613</v>
       </c>
       <c r="J5">
-        <v>9552</v>
+        <v>6491</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>8923</v>
+        <v>8103</v>
       </c>
       <c r="O5">
-        <v>29552</v>
+        <v>25609</v>
       </c>
       <c r="P5">
-        <v>11620</v>
+        <v>8874</v>
       </c>
       <c r="Q5">
-        <v>-14</v>
+        <v>-196</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>-4833</v>
+        <v>6231</v>
       </c>
       <c r="U5">
-        <v>304</v>
+        <v>69</v>
       </c>
       <c r="V5">
-        <v>-307</v>
+        <v>421</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-75</v>
+        <v>1197</v>
       </c>
       <c r="Y5">
-        <v>615</v>
+        <v>1607</v>
       </c>
       <c r="Z5">
-        <v>866</v>
+        <v>-1049</v>
       </c>
       <c r="AA5">
-        <v>-162</v>
+        <v>-414</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>-1095</v>
+        <v>-798</v>
       </c>
       <c r="D6">
-        <v>5956</v>
+        <v>3804</v>
       </c>
       <c r="E6">
-        <v>902</v>
+        <v>1162</v>
       </c>
       <c r="F6">
-        <v>1190</v>
+        <v>270</v>
       </c>
       <c r="G6">
-        <v>6757</v>
+        <v>6571</v>
       </c>
       <c r="H6">
-        <v>23848</v>
+        <v>32841</v>
       </c>
       <c r="I6">
-        <v>1496</v>
+        <v>1785</v>
       </c>
       <c r="J6">
-        <v>9184</v>
+        <v>8310</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>9119</v>
+        <v>7512</v>
       </c>
       <c r="O6">
-        <v>30959</v>
+        <v>27468</v>
       </c>
       <c r="P6">
-        <v>10702</v>
+        <v>10606</v>
       </c>
       <c r="Q6">
-        <v>-21</v>
+        <v>33</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>80100</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>-7111</v>
+        <v>5373</v>
       </c>
       <c r="U6">
-        <v>283</v>
+        <v>102</v>
       </c>
       <c r="V6">
-        <v>334</v>
+        <v>-764</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>7</v>
+        <v>1979</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1524</v>
       </c>
       <c r="Z6">
-        <v>274</v>
+        <v>-115</v>
       </c>
       <c r="AA6">
-        <v>-1095</v>
+        <v>-798</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>-1660</v>
+        <v>-1563</v>
       </c>
       <c r="D7">
-        <v>6037</v>
+        <v>4163</v>
       </c>
       <c r="E7">
-        <v>1056</v>
+        <v>1858</v>
       </c>
       <c r="F7">
-        <v>1151</v>
+        <v>2685</v>
       </c>
       <c r="G7">
-        <v>7778</v>
+        <v>6271</v>
       </c>
       <c r="H7">
-        <v>24511</v>
+        <v>31614</v>
       </c>
       <c r="I7">
-        <v>1847</v>
+        <v>1462</v>
       </c>
       <c r="J7">
-        <v>8813</v>
+        <v>8784</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-314</v>
+        <v>-259</v>
       </c>
       <c r="N7">
-        <v>10054</v>
+        <v>7389</v>
       </c>
       <c r="O7">
-        <v>33197</v>
+        <v>27724</v>
       </c>
       <c r="P7">
-        <v>10788</v>
+        <v>10951</v>
       </c>
       <c r="Q7">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>-8686</v>
+        <v>3890</v>
       </c>
       <c r="U7">
-        <v>375</v>
+        <v>134</v>
       </c>
       <c r="V7">
-        <v>1067</v>
+        <v>-447</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>10</v>
+        <v>335</v>
       </c>
       <c r="Y7">
-        <v>316</v>
+        <v>1454</v>
       </c>
       <c r="Z7">
-        <v>-726</v>
+        <v>909</v>
       </c>
       <c r="AA7">
-        <v>-1660</v>
+        <v>-1563</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>-240</v>
+        <v>-495</v>
       </c>
       <c r="D8">
-        <v>6452</v>
+        <v>4508</v>
       </c>
       <c r="E8">
-        <v>1129</v>
+        <v>1556</v>
       </c>
       <c r="F8">
-        <v>1515</v>
+        <v>741</v>
       </c>
       <c r="G8">
-        <v>7984</v>
+        <v>5848</v>
       </c>
       <c r="H8">
-        <v>24726</v>
+        <v>31538</v>
       </c>
       <c r="I8">
-        <v>1841</v>
+        <v>1559</v>
       </c>
       <c r="J8">
-        <v>8632</v>
+        <v>9172</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13437</v>
+        <v>7459</v>
       </c>
       <c r="O8">
-        <v>33694</v>
+        <v>28131</v>
       </c>
       <c r="P8">
-        <v>10679</v>
+        <v>11113</v>
       </c>
       <c r="Q8">
-        <v>-4</v>
+        <v>61</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>-8968</v>
+        <v>3407</v>
       </c>
       <c r="U8">
-        <v>371</v>
+        <v>195</v>
       </c>
       <c r="V8">
-        <v>655</v>
+        <v>492</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-44</v>
+        <v>66</v>
       </c>
       <c r="Y8">
-        <v>393</v>
+        <v>1444</v>
       </c>
       <c r="Z8">
-        <v>-164</v>
+        <v>-329</v>
       </c>
       <c r="AA8">
-        <v>-241</v>
+        <v>-495</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-239</v>
+        <v>-924</v>
       </c>
       <c r="D9">
-        <v>6429</v>
+        <v>4524</v>
       </c>
       <c r="E9">
-        <v>1160</v>
+        <v>1563</v>
       </c>
       <c r="F9">
-        <v>1514</v>
+        <v>705</v>
       </c>
       <c r="G9">
-        <v>7303</v>
+        <v>5987</v>
       </c>
       <c r="H9">
-        <v>23927</v>
+        <v>31502</v>
       </c>
       <c r="I9">
-        <v>1686</v>
+        <v>1360</v>
       </c>
       <c r="J9">
-        <v>8364</v>
+        <v>10509</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9989</v>
+        <v>7218</v>
       </c>
       <c r="O9">
-        <v>31302</v>
+        <v>28991</v>
       </c>
       <c r="P9">
-        <v>10300</v>
+        <v>12481</v>
       </c>
       <c r="Q9">
-        <v>137</v>
+        <v>-72</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>-7375</v>
+        <v>2511</v>
       </c>
       <c r="U9">
-        <v>508</v>
+        <v>123</v>
       </c>
       <c r="V9">
-        <v>-155</v>
+        <v>-558</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-104</v>
+        <v>1344</v>
       </c>
       <c r="Y9">
-        <v>392</v>
+        <v>1422</v>
       </c>
       <c r="Z9">
-        <v>805</v>
+        <v>-185</v>
       </c>
       <c r="AA9">
-        <v>-238</v>
+        <v>-924</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>263</v>
+        <v>-529</v>
       </c>
       <c r="D10">
-        <v>5937</v>
+        <v>4225</v>
       </c>
       <c r="E10">
-        <v>1124</v>
+        <v>909</v>
       </c>
       <c r="F10">
-        <v>1317</v>
+        <v>571</v>
       </c>
       <c r="G10">
-        <v>7072</v>
+        <v>4937</v>
       </c>
       <c r="H10">
-        <v>23510</v>
+        <v>30267</v>
       </c>
       <c r="I10">
-        <v>1417</v>
+        <v>1198</v>
       </c>
       <c r="J10">
-        <v>8314</v>
+        <v>10888</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9453</v>
+        <v>7240</v>
       </c>
       <c r="O10">
-        <v>31497</v>
+        <v>29310</v>
       </c>
       <c r="P10">
-        <v>9733</v>
+        <v>13178</v>
       </c>
       <c r="Q10">
-        <v>-28</v>
+        <v>-9</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>77750</v>
+        <v>109600</v>
       </c>
       <c r="T10">
-        <v>-7987</v>
+        <v>957</v>
       </c>
       <c r="U10">
-        <v>480</v>
+        <v>104</v>
       </c>
       <c r="V10">
-        <v>-282</v>
+        <v>-598</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>621</v>
+        <v>761</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>1422</v>
       </c>
       <c r="Z10">
-        <v>391</v>
+        <v>145</v>
       </c>
       <c r="AA10">
-        <v>263</v>
+        <v>-529</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-341</v>
+        <v>-1043</v>
       </c>
       <c r="D11">
-        <v>6098</v>
+        <v>4120</v>
       </c>
       <c r="E11">
-        <v>1243</v>
+        <v>873</v>
       </c>
       <c r="F11">
-        <v>1340</v>
+        <v>432</v>
       </c>
       <c r="G11">
-        <v>7525</v>
+        <v>3634</v>
       </c>
       <c r="H11">
-        <v>23852</v>
+        <v>29086</v>
       </c>
       <c r="I11">
-        <v>1825</v>
+        <v>1052</v>
       </c>
       <c r="J11">
-        <v>7844</v>
+        <v>10995</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-394</v>
+        <v>-247</v>
       </c>
       <c r="N11">
-        <v>10375</v>
+        <v>7073</v>
       </c>
       <c r="O11">
-        <v>32228</v>
+        <v>29188</v>
       </c>
       <c r="P11">
-        <v>9505</v>
+        <v>13152</v>
       </c>
       <c r="Q11">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>-8376</v>
+        <v>-102</v>
       </c>
       <c r="U11">
-        <v>606</v>
+        <v>157</v>
       </c>
       <c r="V11">
-        <v>700</v>
+        <v>-537</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>514</v>
+        <v>-197</v>
       </c>
       <c r="Y11">
-        <v>375</v>
+        <v>1350</v>
       </c>
       <c r="Z11">
-        <v>-226</v>
+        <v>731</v>
       </c>
       <c r="AA11">
-        <v>-341</v>
+        <v>-1043</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>219</v>
+        <v>-75</v>
       </c>
       <c r="D12">
-        <v>6449</v>
+        <v>4324</v>
       </c>
       <c r="E12">
-        <v>1376</v>
+        <v>873</v>
       </c>
       <c r="F12">
-        <v>1735</v>
+        <v>995</v>
       </c>
       <c r="G12">
-        <v>9635</v>
+        <v>4247</v>
       </c>
       <c r="H12">
-        <v>26216</v>
+        <v>29220</v>
       </c>
       <c r="I12">
-        <v>1894</v>
+        <v>1100</v>
       </c>
       <c r="J12">
-        <v>9162</v>
+        <v>11241</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11056</v>
+        <v>7081</v>
       </c>
       <c r="O12">
-        <v>34432</v>
+        <v>29722</v>
       </c>
       <c r="P12">
-        <v>10856</v>
+        <v>13257</v>
       </c>
       <c r="Q12">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>-8216</v>
+        <v>-502</v>
       </c>
       <c r="U12">
-        <v>604</v>
+        <v>157</v>
       </c>
       <c r="V12">
-        <v>1170</v>
+        <v>705</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>1725</v>
+        <v>-240</v>
       </c>
       <c r="Y12">
-        <v>367</v>
+        <v>1294</v>
       </c>
       <c r="Z12">
-        <v>-1968</v>
+        <v>-375</v>
       </c>
       <c r="AA12">
-        <v>220</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>289</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>6828</v>
+        <v>4605</v>
       </c>
       <c r="E13">
-        <v>1340</v>
+        <v>885</v>
       </c>
       <c r="F13">
-        <v>1953</v>
+        <v>1361</v>
       </c>
       <c r="G13">
-        <v>10241</v>
+        <v>5076</v>
       </c>
       <c r="H13">
-        <v>26780</v>
+        <v>29943</v>
       </c>
       <c r="I13">
-        <v>1726</v>
+        <v>1075</v>
       </c>
       <c r="J13">
-        <v>9993</v>
+        <v>11933</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10517</v>
+        <v>7132</v>
       </c>
       <c r="O13">
-        <v>34702</v>
+        <v>30464</v>
       </c>
       <c r="P13">
-        <v>11697</v>
+        <v>13905</v>
       </c>
       <c r="Q13">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>-7922</v>
+        <v>-521</v>
       </c>
       <c r="U13">
-        <v>717</v>
+        <v>158</v>
       </c>
       <c r="V13">
-        <v>17</v>
+        <v>425</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>1203</v>
+        <v>591</v>
       </c>
       <c r="Y13">
-        <v>345</v>
+        <v>1234</v>
       </c>
       <c r="Z13">
-        <v>-440</v>
+        <v>-896</v>
       </c>
       <c r="AA13">
-        <v>289</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>-2001</v>
+        <v>-111</v>
       </c>
       <c r="D14">
-        <v>7337</v>
+        <v>4391</v>
       </c>
       <c r="E14">
-        <v>1560</v>
+        <v>796</v>
       </c>
       <c r="F14">
-        <v>1890</v>
+        <v>1285</v>
       </c>
       <c r="G14">
-        <v>14323</v>
+        <v>4682</v>
       </c>
       <c r="H14">
-        <v>42278</v>
+        <v>29330</v>
       </c>
       <c r="I14">
-        <v>1368</v>
+        <v>967</v>
       </c>
       <c r="J14">
-        <v>19186</v>
+        <v>11901</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13806</v>
+        <v>6559</v>
       </c>
       <c r="O14">
-        <v>45009</v>
+        <v>29284</v>
       </c>
       <c r="P14">
-        <v>20632</v>
+        <v>13930</v>
       </c>
       <c r="Q14">
-        <v>423</v>
+        <v>-38</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>110400</v>
+        <v>96400</v>
       </c>
       <c r="T14">
-        <v>-2731</v>
+        <v>46</v>
       </c>
       <c r="U14">
-        <v>1140</v>
+        <v>120</v>
       </c>
       <c r="V14">
-        <v>-1212</v>
+        <v>8</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>357</v>
+        <v>-94</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>1225</v>
       </c>
       <c r="Z14">
-        <v>1453</v>
+        <v>-100</v>
       </c>
       <c r="AA14">
-        <v>-2001</v>
+        <v>-111</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>480</v>
+        <v>-166</v>
       </c>
       <c r="D15">
-        <v>9995</v>
+        <v>4512</v>
       </c>
       <c r="E15">
-        <v>2008</v>
+        <v>965</v>
       </c>
       <c r="F15">
-        <v>2346</v>
+        <v>1238</v>
       </c>
       <c r="G15">
-        <v>15193</v>
+        <v>5406</v>
       </c>
       <c r="H15">
-        <v>43737</v>
+        <v>29950</v>
       </c>
       <c r="I15">
-        <v>1646</v>
+        <v>1022</v>
       </c>
       <c r="J15">
-        <v>15833</v>
+        <v>12403</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-501</v>
+        <v>-199</v>
       </c>
       <c r="N15">
-        <v>15079</v>
+        <v>7110</v>
       </c>
       <c r="O15">
-        <v>42642</v>
+        <v>30085</v>
       </c>
       <c r="P15">
-        <v>17274</v>
+        <v>14392</v>
       </c>
       <c r="Q15">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1095</v>
+        <v>-135</v>
       </c>
       <c r="U15">
-        <v>1259</v>
+        <v>152</v>
       </c>
       <c r="V15">
-        <v>1256</v>
+        <v>371</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-194</v>
+        <v>430</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1174</v>
       </c>
       <c r="Z15">
-        <v>-294</v>
+        <v>-588</v>
       </c>
       <c r="AA15">
-        <v>480</v>
+        <v>-166</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>863</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>11355</v>
+        <v>4830</v>
       </c>
       <c r="E16">
-        <v>1981</v>
+        <v>919</v>
       </c>
       <c r="F16">
-        <v>3440</v>
+        <v>1372</v>
       </c>
       <c r="G16">
-        <v>14966</v>
+        <v>5513</v>
       </c>
       <c r="H16">
-        <v>44811</v>
+        <v>30001</v>
       </c>
       <c r="I16">
-        <v>1653</v>
+        <v>1133</v>
       </c>
       <c r="J16">
-        <v>15205</v>
+        <v>12491</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15088</v>
+        <v>7297</v>
       </c>
       <c r="O16">
-        <v>40725</v>
+        <v>30123</v>
       </c>
       <c r="P16">
-        <v>16728</v>
+        <v>14437</v>
       </c>
       <c r="Q16">
-        <v>-49</v>
+        <v>44</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>4086</v>
+        <v>-122</v>
       </c>
       <c r="U16">
-        <v>1210</v>
+        <v>196</v>
       </c>
       <c r="V16">
-        <v>1381</v>
+        <v>362</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-26</v>
+        <v>41</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>1135</v>
       </c>
       <c r="Z16">
-        <v>156</v>
+        <v>-94</v>
       </c>
       <c r="AA16">
-        <v>864</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>942</v>
+        <v>-214</v>
       </c>
       <c r="D17">
-        <v>11139</v>
+        <v>4762</v>
       </c>
       <c r="E17">
-        <v>1961</v>
+        <v>903</v>
       </c>
       <c r="F17">
-        <v>3241</v>
+        <v>1153</v>
       </c>
       <c r="G17">
-        <v>13450</v>
+        <v>5300</v>
       </c>
       <c r="H17">
-        <v>44173</v>
+        <v>29261</v>
       </c>
       <c r="I17">
-        <v>1498</v>
+        <v>1043</v>
       </c>
       <c r="J17">
-        <v>15651</v>
+        <v>12488</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13888</v>
+        <v>7124</v>
       </c>
       <c r="O17">
-        <v>39202</v>
+        <v>29575</v>
       </c>
       <c r="P17">
-        <v>17090</v>
+        <v>14383</v>
       </c>
       <c r="Q17">
-        <v>-32</v>
+        <v>-79</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>111852</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>4971</v>
+        <v>-314</v>
       </c>
       <c r="U17">
-        <v>1178</v>
+        <v>117</v>
       </c>
       <c r="V17">
-        <v>-361</v>
+        <v>70</v>
       </c>
       <c r="W17">
-        <v>-72</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>107</v>
+        <v>-65</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="Z17">
-        <v>1528</v>
+        <v>150</v>
       </c>
       <c r="AA17">
-        <v>942</v>
+        <v>-214</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>597</v>
+        <v>-387</v>
       </c>
       <c r="D18">
-        <v>10160</v>
+        <v>4541</v>
       </c>
       <c r="E18">
-        <v>1771</v>
+        <v>836</v>
       </c>
       <c r="F18">
-        <v>3011</v>
+        <v>869</v>
       </c>
       <c r="G18">
-        <v>11750</v>
+        <v>4971</v>
       </c>
       <c r="H18">
-        <v>43225</v>
+        <v>28773</v>
       </c>
       <c r="I18">
-        <v>1377</v>
+        <v>1003</v>
       </c>
       <c r="J18">
-        <v>16043</v>
+        <v>12436</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13404</v>
+        <v>7018</v>
       </c>
       <c r="O18">
-        <v>41204</v>
+        <v>29354</v>
       </c>
       <c r="P18">
-        <v>17720</v>
+        <v>14330</v>
       </c>
       <c r="Q18">
-        <v>-184</v>
+        <v>3</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>113300</v>
+        <v>92100</v>
       </c>
       <c r="T18">
-        <v>2021</v>
+        <v>-581</v>
       </c>
       <c r="U18">
-        <v>994</v>
+        <v>120</v>
       </c>
       <c r="V18">
-        <v>804</v>
+        <v>-86</v>
       </c>
       <c r="W18">
-        <v>-72</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-202</v>
+        <v>-75</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1088</v>
       </c>
       <c r="Z18">
-        <v>409</v>
+        <v>209</v>
       </c>
       <c r="AA18">
-        <v>597</v>
+        <v>-387</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>932</v>
+        <v>-162</v>
       </c>
       <c r="D19">
-        <v>9827</v>
+        <v>4750</v>
       </c>
       <c r="E19">
-        <v>1826</v>
+        <v>1033</v>
       </c>
       <c r="F19">
-        <v>3236</v>
+        <v>1201</v>
       </c>
       <c r="G19">
-        <v>14129</v>
+        <v>5420</v>
       </c>
       <c r="H19">
-        <v>46754</v>
+        <v>29167</v>
       </c>
       <c r="I19">
-        <v>1587</v>
+        <v>1131</v>
       </c>
       <c r="J19">
-        <v>17638</v>
+        <v>12366</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-746</v>
+        <v>-235</v>
       </c>
       <c r="N19">
-        <v>14233</v>
+        <v>7731</v>
       </c>
       <c r="O19">
-        <v>43990</v>
+        <v>29864</v>
       </c>
       <c r="P19">
-        <v>18922</v>
+        <v>14254</v>
       </c>
       <c r="Q19">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
-        <v>116800</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>2764</v>
+        <v>-697</v>
       </c>
       <c r="U19">
-        <v>1048</v>
+        <v>148</v>
       </c>
       <c r="V19">
-        <v>2494</v>
+        <v>465</v>
       </c>
       <c r="W19">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>762</v>
+        <v>-92</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1009</v>
       </c>
       <c r="Z19">
-        <v>-1814</v>
+        <v>-103</v>
       </c>
       <c r="AA19">
-        <v>932</v>
+        <v>-162</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>1704</v>
+        <v>58</v>
       </c>
       <c r="D20">
-        <v>10827</v>
+        <v>5309</v>
       </c>
       <c r="E20">
-        <v>1892</v>
+        <v>1052</v>
       </c>
       <c r="F20">
-        <v>3873</v>
+        <v>1438</v>
       </c>
       <c r="G20">
-        <v>14109</v>
+        <v>5789</v>
       </c>
       <c r="H20">
-        <v>47868</v>
+        <v>29494</v>
       </c>
       <c r="I20">
-        <v>1683</v>
+        <v>1202</v>
       </c>
       <c r="J20">
-        <v>17152</v>
+        <v>12357</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15045</v>
+        <v>8019</v>
       </c>
       <c r="O20">
-        <v>44232</v>
+        <v>30109</v>
       </c>
       <c r="P20">
-        <v>18794</v>
+        <v>14232</v>
       </c>
       <c r="Q20">
-        <v>-96</v>
+        <v>18</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>120400</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>3636</v>
+        <v>-615</v>
       </c>
       <c r="U20">
-        <v>952</v>
+        <v>166</v>
       </c>
       <c r="V20">
-        <v>2347</v>
+        <v>599</v>
       </c>
       <c r="W20">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-950</v>
+        <v>-22</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="Z20">
-        <v>209</v>
+        <v>-321</v>
       </c>
       <c r="AA20">
-        <v>1704</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>1693</v>
+        <v>-153</v>
       </c>
       <c r="D21">
-        <v>10706</v>
+        <v>5485</v>
       </c>
       <c r="E21">
-        <v>1828</v>
+        <v>1111</v>
       </c>
       <c r="F21">
-        <v>3997</v>
+        <v>1349</v>
       </c>
       <c r="G21">
-        <v>13706</v>
+        <v>5987</v>
       </c>
       <c r="H21">
-        <v>48715</v>
+        <v>29436</v>
       </c>
       <c r="I21">
-        <v>1525</v>
+        <v>1101</v>
       </c>
       <c r="J21">
-        <v>18849</v>
+        <v>12292</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14161</v>
+        <v>7869</v>
       </c>
       <c r="O21">
-        <v>44953</v>
+        <v>30165</v>
       </c>
       <c r="P21">
-        <v>20561</v>
+        <v>14191</v>
       </c>
       <c r="Q21">
-        <v>64</v>
+        <v>-39</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>119000</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>3762</v>
+        <v>-729</v>
       </c>
       <c r="U21">
-        <v>1016</v>
+        <v>127</v>
       </c>
       <c r="V21">
-        <v>1180</v>
+        <v>-32</v>
       </c>
       <c r="W21">
-        <v>-66</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>221</v>
+        <v>147</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>939</v>
       </c>
       <c r="Z21">
-        <v>107</v>
+        <v>-52</v>
       </c>
       <c r="AA21">
-        <v>1693</v>
+        <v>-153</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>3281</v>
+        <v>-600</v>
       </c>
       <c r="D22">
-        <v>9630</v>
+        <v>5168</v>
       </c>
       <c r="E22">
-        <v>1425</v>
+        <v>991</v>
       </c>
       <c r="F22">
-        <v>3308</v>
+        <v>1029</v>
       </c>
       <c r="G22">
-        <v>9985</v>
+        <v>6164</v>
       </c>
       <c r="H22">
-        <v>48415</v>
+        <v>29495</v>
       </c>
       <c r="I22">
-        <v>1563</v>
+        <v>1078</v>
       </c>
       <c r="J22">
-        <v>18330</v>
+        <v>12530</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13605</v>
+        <v>8272</v>
       </c>
       <c r="O22">
-        <v>42780</v>
+        <v>30925</v>
       </c>
       <c r="P22">
-        <v>20561</v>
+        <v>14695</v>
       </c>
       <c r="Q22">
-        <v>-626</v>
+        <v>11</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>118500</v>
+        <v>88400</v>
       </c>
       <c r="T22">
-        <v>5635</v>
+        <v>-1430</v>
       </c>
       <c r="U22">
-        <v>390</v>
+        <v>138</v>
       </c>
       <c r="V22">
-        <v>228</v>
+        <v>-8</v>
       </c>
       <c r="W22">
-        <v>-72</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-1292</v>
+        <v>500</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>926</v>
       </c>
       <c r="Z22">
-        <v>1941</v>
+        <v>-391</v>
       </c>
       <c r="AA22">
-        <v>3281</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>700</v>
+        <v>-92</v>
       </c>
       <c r="D23">
-        <v>9435</v>
+        <v>5344</v>
       </c>
       <c r="E23">
-        <v>1450</v>
+        <v>1073</v>
       </c>
       <c r="F23">
-        <v>3180</v>
+        <v>1320</v>
       </c>
       <c r="G23">
-        <v>10802</v>
+        <v>6820</v>
       </c>
       <c r="H23">
-        <v>49909</v>
+        <v>29918</v>
       </c>
       <c r="I23">
-        <v>1913</v>
+        <v>1160</v>
       </c>
       <c r="J23">
-        <v>19134</v>
+        <v>12292</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-310</v>
+        <v>-364</v>
       </c>
       <c r="N23">
-        <v>15277</v>
+        <v>8744</v>
       </c>
       <c r="O23">
-        <v>45199</v>
+        <v>31190</v>
       </c>
       <c r="P23">
-        <v>21744</v>
+        <v>14350</v>
       </c>
       <c r="Q23">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
-        <v>120200</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>4710</v>
+        <v>-1272</v>
       </c>
       <c r="U23">
-        <v>495</v>
+        <v>144</v>
       </c>
       <c r="V23">
-        <v>2620</v>
+        <v>789</v>
       </c>
       <c r="W23">
-        <v>-61</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-401</v>
+        <v>-237</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>873</v>
       </c>
       <c r="Z23">
-        <v>-565</v>
+        <v>-448</v>
       </c>
       <c r="AA23">
-        <v>700</v>
+        <v>-92</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>950</v>
+        <v>291</v>
       </c>
       <c r="D24">
-        <v>10363</v>
+        <v>5975</v>
       </c>
       <c r="E24">
-        <v>1593</v>
+        <v>1121</v>
       </c>
       <c r="F24">
-        <v>3651</v>
+        <v>1737</v>
       </c>
       <c r="G24">
-        <v>11184</v>
+        <v>7840</v>
       </c>
       <c r="H24">
-        <v>51051</v>
+        <v>30752</v>
       </c>
       <c r="I24">
-        <v>1944</v>
+        <v>1263</v>
       </c>
       <c r="J24">
-        <v>21131</v>
+        <v>12106</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14917</v>
+        <v>9232</v>
       </c>
       <c r="O24">
-        <v>46739</v>
+        <v>31260</v>
       </c>
       <c r="P24">
-        <v>22846</v>
+        <v>14120</v>
       </c>
       <c r="Q24">
-        <v>-49</v>
+        <v>23</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>123500</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>4312</v>
+        <v>-508</v>
       </c>
       <c r="U24">
-        <v>446</v>
+        <v>167</v>
       </c>
       <c r="V24">
-        <v>2213</v>
+        <v>822</v>
       </c>
       <c r="W24">
-        <v>-58</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-605</v>
+        <v>222</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>862</v>
       </c>
       <c r="Z24">
-        <v>-230</v>
+        <v>-862</v>
       </c>
       <c r="AA24">
-        <v>950</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>737</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>10594</v>
+        <v>5847</v>
       </c>
       <c r="E25">
-        <v>1703</v>
+        <v>1160</v>
       </c>
       <c r="F25">
-        <v>3653</v>
+        <v>1526</v>
       </c>
       <c r="G25">
-        <v>11048</v>
+        <v>7473</v>
       </c>
       <c r="H25">
-        <v>51108</v>
+        <v>30128</v>
       </c>
       <c r="I25">
-        <v>1673</v>
+        <v>1087</v>
       </c>
       <c r="J25">
-        <v>21545</v>
+        <v>11571</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14533</v>
+        <v>8675</v>
       </c>
       <c r="O25">
-        <v>46717</v>
+        <v>30642</v>
       </c>
       <c r="P25">
-        <v>23343</v>
+        <v>13913</v>
       </c>
       <c r="Q25">
-        <v>-65</v>
+        <v>-53</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>121800</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>4391</v>
+        <v>-514</v>
       </c>
       <c r="U25">
-        <v>381</v>
+        <v>114</v>
       </c>
       <c r="V25">
-        <v>1064</v>
+        <v>118</v>
       </c>
       <c r="W25">
-        <v>-53</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-258</v>
+        <v>-175</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>836</v>
       </c>
       <c r="Z25">
-        <v>304</v>
+        <v>46</v>
       </c>
       <c r="AA25">
-        <v>737</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>289</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>9789</v>
+        <v>5397</v>
       </c>
       <c r="E26">
-        <v>1594</v>
+        <v>988</v>
       </c>
       <c r="F26">
-        <v>2896</v>
+        <v>1397</v>
       </c>
       <c r="G26">
-        <v>10324</v>
+        <v>6902</v>
       </c>
       <c r="H26">
-        <v>51274</v>
+        <v>29145</v>
       </c>
       <c r="I26">
-        <v>1592</v>
+        <v>1073</v>
       </c>
       <c r="J26">
-        <v>22489</v>
+        <v>11217</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>13872</v>
+        <v>8505</v>
       </c>
       <c r="O26">
-        <v>47489</v>
+        <v>29751</v>
       </c>
       <c r="P26">
-        <v>24344</v>
+        <v>13390</v>
       </c>
       <c r="Q26">
-        <v>-59</v>
+        <v>7</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>122300</v>
+        <v>86600</v>
       </c>
       <c r="T26">
-        <v>3785</v>
+        <v>-606</v>
       </c>
       <c r="U26">
-        <v>322</v>
+        <v>121</v>
       </c>
       <c r="V26">
-        <v>627</v>
+        <v>210</v>
       </c>
       <c r="W26">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>370</v>
+        <v>-401</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>824</v>
       </c>
       <c r="Z26">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AA26">
-        <v>289</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>340</v>
+        <v>81</v>
       </c>
       <c r="D27">
-        <v>9820</v>
+        <v>5427</v>
       </c>
       <c r="E27">
-        <v>1397</v>
+        <v>1124</v>
       </c>
       <c r="F27">
-        <v>2761</v>
+        <v>1491</v>
       </c>
       <c r="G27">
-        <v>10626</v>
+        <v>7833</v>
       </c>
       <c r="H27">
-        <v>52627</v>
+        <v>29884</v>
       </c>
       <c r="I27">
-        <v>1882</v>
+        <v>1212</v>
       </c>
       <c r="J27">
-        <v>22829</v>
+        <v>10720</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-686</v>
+        <v>-646</v>
       </c>
       <c r="N27">
-        <v>15286</v>
+        <v>8958</v>
       </c>
       <c r="O27">
-        <v>49170</v>
+        <v>29658</v>
       </c>
       <c r="P27">
-        <v>24543</v>
+        <v>12760</v>
       </c>
       <c r="Q27">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>124300</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>3457</v>
+        <v>226</v>
       </c>
       <c r="U27">
-        <v>374</v>
+        <v>145</v>
       </c>
       <c r="V27">
-        <v>2250</v>
+        <v>902</v>
       </c>
       <c r="W27">
-        <v>-51</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-349</v>
+        <v>-60</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>751</v>
       </c>
       <c r="Z27">
-        <v>-262</v>
+        <v>-644</v>
       </c>
       <c r="AA27">
-        <v>340</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>864</v>
+        <v>317</v>
       </c>
       <c r="D28">
-        <v>11227</v>
+        <v>5879</v>
       </c>
       <c r="E28">
-        <v>1543</v>
+        <v>1219</v>
       </c>
       <c r="F28">
-        <v>3820</v>
+        <v>1714</v>
       </c>
       <c r="G28">
-        <v>11016</v>
+        <v>8588</v>
       </c>
       <c r="H28">
-        <v>53336</v>
+        <v>30410</v>
       </c>
       <c r="I28">
-        <v>1924</v>
+        <v>1359</v>
       </c>
       <c r="J28">
-        <v>22525</v>
+        <v>10511</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>16112</v>
+        <v>9393</v>
       </c>
       <c r="O28">
-        <v>49621</v>
+        <v>29800</v>
       </c>
       <c r="P28">
-        <v>24859</v>
+        <v>12560</v>
       </c>
       <c r="Q28">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>128300</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>3715</v>
+        <v>610</v>
       </c>
       <c r="U28">
-        <v>386</v>
+        <v>215</v>
       </c>
       <c r="V28">
-        <v>1688</v>
+        <v>841</v>
       </c>
       <c r="W28">
-        <v>-51</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-272</v>
+        <v>-160</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>731</v>
       </c>
       <c r="Z28">
-        <v>-194</v>
+        <v>-447</v>
       </c>
       <c r="AA28">
-        <v>864</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>661</v>
+        <v>175</v>
       </c>
       <c r="D29">
-        <v>10965</v>
+        <v>5946</v>
       </c>
       <c r="E29">
-        <v>1700</v>
+        <v>1166</v>
       </c>
       <c r="F29">
-        <v>3479</v>
+        <v>1593</v>
       </c>
       <c r="G29">
-        <v>10002</v>
+        <v>8062</v>
       </c>
       <c r="H29">
-        <v>52401</v>
+        <v>29599</v>
       </c>
       <c r="I29">
-        <v>1638</v>
+        <v>1269</v>
       </c>
       <c r="J29">
-        <v>22217</v>
+        <v>9830</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>15307</v>
+        <v>9236</v>
       </c>
       <c r="O29">
-        <v>48453</v>
+        <v>28771</v>
       </c>
       <c r="P29">
-        <v>24684</v>
+        <v>11991</v>
       </c>
       <c r="Q29">
-        <v>-45</v>
+        <v>-54</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>127600</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>3948</v>
+        <v>828</v>
       </c>
       <c r="U29">
-        <v>340</v>
+        <v>161</v>
       </c>
       <c r="V29">
-        <v>369</v>
+        <v>202</v>
       </c>
       <c r="W29">
-        <v>-48</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-599</v>
+        <v>-590</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="Z29">
-        <v>874</v>
+        <v>456</v>
       </c>
       <c r="AA29">
-        <v>661</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-583</v>
+        <v>-69</v>
       </c>
       <c r="D30">
-        <v>10611</v>
+        <v>5683</v>
       </c>
       <c r="E30">
-        <v>1752</v>
+        <v>1027</v>
       </c>
       <c r="F30">
-        <v>3064</v>
+        <v>1237</v>
       </c>
       <c r="G30">
-        <v>9146</v>
+        <v>7229</v>
       </c>
       <c r="H30">
-        <v>52785</v>
+        <v>28571</v>
       </c>
       <c r="I30">
-        <v>1688</v>
+        <v>1182</v>
       </c>
       <c r="J30">
-        <v>21818</v>
+        <v>9413</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>15358</v>
+        <v>8483</v>
       </c>
       <c r="O30">
-        <v>53565</v>
+        <v>25914</v>
       </c>
       <c r="P30">
-        <v>25065</v>
+        <v>11142</v>
       </c>
       <c r="Q30">
-        <v>-45</v>
+        <v>-13</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>126600</v>
+        <v>85500</v>
       </c>
       <c r="T30">
-        <v>-780</v>
+        <v>2657</v>
       </c>
       <c r="U30">
-        <v>295</v>
+        <v>148</v>
       </c>
       <c r="V30">
-        <v>437</v>
+        <v>-10</v>
       </c>
       <c r="W30">
-        <v>-48</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>75</v>
+        <v>-865</v>
       </c>
       <c r="Y30">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="Z30">
-        <v>661</v>
+        <v>842</v>
       </c>
       <c r="AA30">
-        <v>-583</v>
+        <v>-69</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>159</v>
+        <v>-341</v>
       </c>
       <c r="D31">
-        <v>10401</v>
+        <v>5697</v>
       </c>
       <c r="E31">
-        <v>1809</v>
+        <v>1109</v>
       </c>
       <c r="F31">
-        <v>2753</v>
+        <v>1113</v>
       </c>
       <c r="G31">
-        <v>9673</v>
+        <v>7513</v>
       </c>
       <c r="H31">
-        <v>53280</v>
+        <v>28766</v>
       </c>
       <c r="I31">
-        <v>1953</v>
+        <v>1318</v>
       </c>
       <c r="J31">
-        <v>21946</v>
+        <v>8745</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-568</v>
+        <v>-254</v>
       </c>
       <c r="N31">
-        <v>17008</v>
+        <v>9572</v>
       </c>
       <c r="O31">
-        <v>54298</v>
+        <v>26277</v>
       </c>
       <c r="P31">
-        <v>24739</v>
+        <v>10933</v>
       </c>
       <c r="Q31">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>128600</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>-1018</v>
+        <v>2489</v>
       </c>
       <c r="U31">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="V31">
-        <v>1800</v>
+        <v>449</v>
       </c>
       <c r="W31">
-        <v>-48</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-842</v>
+        <v>-253</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="Z31">
-        <v>-223</v>
+        <v>71</v>
       </c>
       <c r="AA31">
-        <v>159</v>
+        <v>-341</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>557</v>
+        <v>-1461</v>
       </c>
       <c r="D32">
-        <v>11643</v>
+        <v>6179</v>
       </c>
       <c r="E32">
-        <v>1941</v>
+        <v>1166</v>
       </c>
       <c r="F32">
-        <v>3416</v>
+        <v>1199</v>
       </c>
       <c r="G32">
-        <v>9176</v>
+        <v>9072</v>
       </c>
       <c r="H32">
-        <v>52622</v>
+        <v>28925</v>
       </c>
       <c r="I32">
-        <v>2053</v>
+        <v>1389</v>
       </c>
       <c r="J32">
-        <v>21863</v>
+        <v>8708</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>16669</v>
+        <v>10640</v>
       </c>
       <c r="O32">
-        <v>53491</v>
+        <v>27265</v>
       </c>
       <c r="P32">
-        <v>24076</v>
+        <v>10889</v>
       </c>
       <c r="Q32">
-        <v>-95</v>
+        <v>84</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>131600</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>-869</v>
+        <v>1660</v>
       </c>
       <c r="U32">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="V32">
-        <v>1094</v>
+        <v>705</v>
       </c>
       <c r="W32">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-1110</v>
+        <v>95</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="Z32">
-        <v>618</v>
+        <v>-466</v>
       </c>
       <c r="AA32">
-        <v>556</v>
+        <v>-1461</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>372</v>
+        <v>31</v>
       </c>
       <c r="D33">
-        <v>11559</v>
+        <v>6421</v>
       </c>
       <c r="E33">
-        <v>2170</v>
+        <v>1104</v>
       </c>
       <c r="F33">
-        <v>3092</v>
+        <v>1161</v>
       </c>
       <c r="G33">
-        <v>9498</v>
+        <v>7507</v>
       </c>
       <c r="H33">
-        <v>52635</v>
+        <v>26950</v>
       </c>
       <c r="I33">
-        <v>1886</v>
+        <v>1164</v>
       </c>
       <c r="J33">
-        <v>22274</v>
+        <v>8946</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>16348</v>
+        <v>9484</v>
       </c>
       <c r="O33">
-        <v>53203</v>
+        <v>26016</v>
       </c>
       <c r="P33">
-        <v>24767</v>
+        <v>11126</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>-14</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
-        <v>130500</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>-568</v>
+        <v>934</v>
       </c>
       <c r="U33">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="V33">
-        <v>-77</v>
+        <v>-1184</v>
       </c>
       <c r="W33">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>634</v>
+        <v>521</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="Z33">
-        <v>-169</v>
+        <v>434</v>
       </c>
       <c r="AA33">
-        <v>372</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>324</v>
+        <v>-347</v>
       </c>
       <c r="D34">
-        <v>10938</v>
+        <v>5469</v>
       </c>
       <c r="E34">
-        <v>1706</v>
+        <v>811</v>
       </c>
       <c r="F34">
-        <v>2941</v>
+        <v>1080</v>
       </c>
       <c r="G34">
-        <v>8637</v>
+        <v>5935</v>
       </c>
       <c r="H34">
-        <v>60580</v>
+        <v>25175</v>
       </c>
       <c r="I34">
-        <v>1773</v>
+        <v>952</v>
       </c>
       <c r="J34">
-        <v>20566</v>
+        <v>8423</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>18096</v>
+        <v>9370</v>
       </c>
       <c r="O34">
-        <v>60749</v>
+        <v>28110</v>
       </c>
       <c r="P34">
-        <v>34029</v>
+        <v>10957</v>
       </c>
       <c r="Q34">
-        <v>-28</v>
+        <v>-82</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>128900</v>
+        <v>84100</v>
       </c>
       <c r="T34">
-        <v>-169</v>
+        <v>-2935</v>
       </c>
       <c r="U34">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="V34">
-        <v>716</v>
+        <v>-1364</v>
       </c>
       <c r="W34">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-354</v>
+        <v>19</v>
       </c>
       <c r="Y34">
-        <v>8515</v>
+        <v>582</v>
       </c>
       <c r="Z34">
-        <v>274</v>
+        <v>1432</v>
       </c>
       <c r="AA34">
-        <v>324</v>
+        <v>-347</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>185</v>
+        <v>-375</v>
       </c>
       <c r="D35">
-        <v>10584</v>
+        <v>4839</v>
       </c>
       <c r="E35">
-        <v>1876</v>
+        <v>785</v>
       </c>
       <c r="F35">
-        <v>2660</v>
+        <v>986</v>
       </c>
       <c r="G35">
-        <v>8654</v>
+        <v>5362</v>
       </c>
       <c r="H35">
-        <v>60787</v>
+        <v>24518</v>
       </c>
       <c r="I35">
-        <v>2139</v>
+        <v>1005</v>
       </c>
       <c r="J35">
-        <v>20065</v>
+        <v>8314</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-849</v>
+        <v>-753</v>
       </c>
       <c r="N35">
-        <v>19849</v>
+        <v>8908</v>
       </c>
       <c r="O35">
-        <v>61423</v>
+        <v>27627</v>
       </c>
       <c r="P35">
-        <v>33444</v>
+        <v>10311</v>
       </c>
       <c r="Q35">
-        <v>62</v>
+        <v>-4</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
-        <v>129800</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>-636</v>
+        <v>-3109</v>
       </c>
       <c r="U35">
-        <v>337</v>
+        <v>187</v>
       </c>
       <c r="V35">
-        <v>1651</v>
+        <v>459</v>
       </c>
       <c r="W35">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>-1109</v>
+        <v>-578</v>
       </c>
       <c r="Y35">
-        <v>8380</v>
+        <v>528</v>
       </c>
       <c r="Z35">
-        <v>481</v>
+        <v>239</v>
       </c>
       <c r="AA35">
-        <v>185</v>
+        <v>-375</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>662</v>
+        <v>-390</v>
       </c>
       <c r="D36">
-        <v>11960</v>
+        <v>4889</v>
       </c>
       <c r="E36">
-        <v>1943</v>
+        <v>780</v>
       </c>
       <c r="F36">
-        <v>3481</v>
+        <v>956</v>
       </c>
       <c r="G36">
-        <v>9850</v>
+        <v>5140</v>
       </c>
       <c r="H36">
-        <v>61967</v>
+        <v>24138</v>
       </c>
       <c r="I36">
-        <v>2118</v>
+        <v>1143</v>
       </c>
       <c r="J36">
-        <v>21222</v>
+        <v>8292</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>20123</v>
+        <v>8270</v>
       </c>
       <c r="O36">
-        <v>61989</v>
+        <v>27138</v>
       </c>
       <c r="P36">
-        <v>34748</v>
+        <v>10092</v>
       </c>
       <c r="Q36">
-        <v>-18</v>
+        <v>4</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>133800</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>-22</v>
+        <v>-3000</v>
       </c>
       <c r="U36">
-        <v>319</v>
+        <v>191</v>
       </c>
       <c r="V36">
-        <v>736</v>
+        <v>479</v>
       </c>
       <c r="W36">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>1179</v>
+        <v>-108</v>
       </c>
       <c r="Y36">
-        <v>8387</v>
+        <v>572</v>
       </c>
       <c r="Z36">
-        <v>-1071</v>
+        <v>60</v>
       </c>
       <c r="AA36">
-        <v>662</v>
+        <v>-390</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>425</v>
+        <v>-359</v>
       </c>
       <c r="D37">
-        <v>11911</v>
+        <v>5127</v>
       </c>
       <c r="E37">
-        <v>1850</v>
+        <v>814</v>
       </c>
       <c r="F37">
-        <v>3348</v>
+        <v>1046</v>
       </c>
       <c r="G37">
-        <v>9572</v>
+        <v>6453</v>
       </c>
       <c r="H37">
-        <v>61175</v>
+        <v>25754</v>
       </c>
       <c r="I37">
-        <v>1932</v>
+        <v>1081</v>
       </c>
       <c r="J37">
-        <v>21055</v>
+        <v>9872</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>19560</v>
+        <v>7901</v>
       </c>
       <c r="O37">
-        <v>61015</v>
+        <v>28613</v>
       </c>
       <c r="P37">
-        <v>34440</v>
+        <v>11593</v>
       </c>
       <c r="Q37">
-        <v>-7</v>
+        <v>-20</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
-        <v>131900</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>160</v>
+        <v>-2859</v>
       </c>
       <c r="U37">
-        <v>312</v>
+        <v>171</v>
       </c>
       <c r="V37">
-        <v>828</v>
+        <v>-12</v>
       </c>
       <c r="W37">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-366</v>
+        <v>1803</v>
       </c>
       <c r="Y37">
-        <v>8105</v>
+        <v>589</v>
       </c>
       <c r="Z37">
-        <v>236</v>
+        <v>-1324</v>
       </c>
       <c r="AA37">
-        <v>425</v>
+        <v>-359</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>414</v>
+        <v>-344</v>
       </c>
       <c r="D38">
-        <v>11313</v>
+        <v>5062</v>
       </c>
       <c r="E38">
-        <v>1750</v>
+        <v>768</v>
       </c>
       <c r="F38">
-        <v>3072</v>
+        <v>944</v>
       </c>
       <c r="G38">
-        <v>8206</v>
+        <v>6642</v>
       </c>
       <c r="H38">
-        <v>59995</v>
+        <v>25438</v>
       </c>
       <c r="I38">
-        <v>2062</v>
+        <v>1064</v>
       </c>
       <c r="J38">
-        <v>20896</v>
+        <v>9984</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>18311</v>
+        <v>7728</v>
       </c>
       <c r="O38">
-        <v>60113</v>
+        <v>28927</v>
       </c>
       <c r="P38">
-        <v>33444</v>
+        <v>11697</v>
       </c>
       <c r="Q38">
-        <v>-33</v>
+        <v>-18</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>133700</v>
+        <v>78900</v>
       </c>
       <c r="T38">
-        <v>-118</v>
+        <v>-3489</v>
       </c>
       <c r="U38">
-        <v>280</v>
+        <v>153</v>
       </c>
       <c r="V38">
-        <v>600</v>
+        <v>4</v>
       </c>
       <c r="W38">
-        <v>-43</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-1272</v>
+        <v>638</v>
       </c>
       <c r="Y38">
-        <v>7979</v>
+        <v>599</v>
       </c>
       <c r="Z38">
-        <v>1314</v>
+        <v>-305</v>
       </c>
       <c r="AA38">
-        <v>414</v>
+        <v>-344</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-2241</v>
+        <v>-505</v>
       </c>
       <c r="D39">
-        <v>8515</v>
+        <v>5068</v>
       </c>
       <c r="E39">
-        <v>1020</v>
+        <v>842</v>
       </c>
       <c r="F39">
-        <v>826</v>
+        <v>942</v>
       </c>
       <c r="G39">
-        <v>7175</v>
+        <v>6834</v>
       </c>
       <c r="H39">
-        <v>58580</v>
+        <v>25525</v>
       </c>
       <c r="I39">
-        <v>1648</v>
+        <v>1140</v>
       </c>
       <c r="J39">
-        <v>21033</v>
+        <v>9861</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-926</v>
+        <v>-291</v>
       </c>
       <c r="N39">
-        <v>19213</v>
+        <v>8241</v>
       </c>
       <c r="O39">
-        <v>61216</v>
+        <v>29417</v>
       </c>
       <c r="P39">
-        <v>34073</v>
+        <v>11560</v>
       </c>
       <c r="Q39">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
-        <v>131500</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>-2636</v>
+        <v>-3892</v>
       </c>
       <c r="U39">
-        <v>474</v>
+        <v>189</v>
       </c>
       <c r="V39">
-        <v>-168</v>
+        <v>456</v>
       </c>
       <c r="W39">
-        <v>-43</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>526</v>
+        <v>8</v>
       </c>
       <c r="Y39">
-        <v>7770</v>
+        <v>559</v>
       </c>
       <c r="Z39">
-        <v>417</v>
+        <v>-111</v>
       </c>
       <c r="AA39">
-        <v>-2241</v>
+        <v>-505</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-2067</v>
+        <v>-11</v>
       </c>
       <c r="D40">
-        <v>1622</v>
+        <v>5674</v>
       </c>
       <c r="E40">
-        <v>879</v>
+        <v>910</v>
       </c>
       <c r="F40">
-        <v>-2950</v>
+        <v>1347</v>
       </c>
       <c r="G40">
-        <v>13789</v>
+        <v>7344</v>
       </c>
       <c r="H40">
-        <v>64544</v>
+        <v>25885</v>
       </c>
       <c r="I40">
-        <v>1175</v>
+        <v>1305</v>
       </c>
       <c r="J40">
-        <v>28193</v>
+        <v>9142</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>18000</v>
+        <v>9359</v>
       </c>
       <c r="O40">
-        <v>67713</v>
+        <v>29815</v>
       </c>
       <c r="P40">
-        <v>40049</v>
+        <v>11497</v>
       </c>
       <c r="Q40">
-        <v>-19</v>
+        <v>8</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>107400</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>-3169</v>
+        <v>-3930</v>
       </c>
       <c r="U40">
-        <v>462</v>
+        <v>197</v>
       </c>
       <c r="V40">
-        <v>-908</v>
+        <v>717</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>7688</v>
+        <v>237</v>
       </c>
       <c r="Y40">
-        <v>7477</v>
+        <v>526</v>
       </c>
       <c r="Z40">
-        <v>-6222</v>
+        <v>-530</v>
       </c>
       <c r="AA40">
-        <v>-2067</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>-2399</v>
+        <v>143</v>
       </c>
       <c r="D41">
-        <v>3173</v>
+        <v>5842</v>
       </c>
       <c r="E41">
-        <v>1135</v>
+        <v>889</v>
       </c>
       <c r="F41">
-        <v>-2489</v>
+        <v>1531</v>
       </c>
       <c r="G41">
-        <v>12340</v>
+        <v>6837</v>
       </c>
       <c r="H41">
-        <v>62773</v>
+        <v>25357</v>
       </c>
       <c r="I41">
-        <v>1077</v>
+        <v>1220</v>
       </c>
       <c r="J41">
-        <v>29593</v>
+        <v>9010</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>16584</v>
+        <v>8939</v>
       </c>
       <c r="O41">
-        <v>68301</v>
+        <v>29000</v>
       </c>
       <c r="P41">
-        <v>41205</v>
+        <v>11289</v>
       </c>
       <c r="Q41">
-        <v>-170</v>
+        <v>5</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
-        <v>110500</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>-5528</v>
+        <v>-3643</v>
       </c>
       <c r="U41">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="V41">
-        <v>-2604</v>
+        <v>-83</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>1511</v>
+        <v>210</v>
       </c>
       <c r="Y41">
-        <v>7166</v>
+        <v>503</v>
       </c>
       <c r="Z41">
-        <v>1322</v>
+        <v>532</v>
       </c>
       <c r="AA41">
-        <v>-2399</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>-98</v>
+      </c>
+      <c r="D42">
+        <v>5586</v>
+      </c>
+      <c r="E42">
+        <v>738</v>
+      </c>
+      <c r="F42">
+        <v>1286</v>
+      </c>
+      <c r="G42">
+        <v>6838</v>
+      </c>
+      <c r="H42">
+        <v>25088</v>
+      </c>
+      <c r="I42">
+        <v>1156</v>
+      </c>
+      <c r="J42">
+        <v>8756</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>8780</v>
+      </c>
+      <c r="O42">
+        <v>29033</v>
+      </c>
+      <c r="P42">
+        <v>11136</v>
+      </c>
+      <c r="Q42">
+        <v>-34</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>78250</v>
+      </c>
+      <c r="T42">
+        <v>-3945</v>
+      </c>
+      <c r="U42">
+        <v>168</v>
+      </c>
+      <c r="V42">
+        <v>151</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>349</v>
+      </c>
+      <c r="Y42">
+        <v>497</v>
+      </c>
+      <c r="Z42">
+        <v>27</v>
+      </c>
+      <c r="AA42">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>-436</v>
+      </c>
+      <c r="D43">
+        <v>5533</v>
+      </c>
+      <c r="E43">
+        <v>922</v>
+      </c>
+      <c r="F43">
+        <v>1031</v>
+      </c>
+      <c r="G43">
+        <v>8825</v>
+      </c>
+      <c r="H43">
+        <v>27113</v>
+      </c>
+      <c r="I43">
+        <v>1267</v>
+      </c>
+      <c r="J43">
+        <v>9568</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-323</v>
+      </c>
+      <c r="N43">
+        <v>9853</v>
+      </c>
+      <c r="O43">
+        <v>31062</v>
+      </c>
+      <c r="P43">
+        <v>12118</v>
+      </c>
+      <c r="Q43">
+        <v>118</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>-3949</v>
+      </c>
+      <c r="U43">
+        <v>286</v>
+      </c>
+      <c r="V43">
+        <v>708</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>965</v>
+      </c>
+      <c r="Y43">
+        <v>588</v>
+      </c>
+      <c r="Z43">
+        <v>-1185</v>
+      </c>
+      <c r="AA43">
+        <v>-436</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>-286</v>
+      </c>
+      <c r="D44">
+        <v>6114</v>
+      </c>
+      <c r="E44">
+        <v>945</v>
+      </c>
+      <c r="F44">
+        <v>1168</v>
+      </c>
+      <c r="G44">
+        <v>7997</v>
+      </c>
+      <c r="H44">
+        <v>25787</v>
+      </c>
+      <c r="I44">
+        <v>1291</v>
+      </c>
+      <c r="J44">
+        <v>9428</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>9766</v>
+      </c>
+      <c r="O44">
+        <v>30296</v>
+      </c>
+      <c r="P44">
+        <v>11882</v>
+      </c>
+      <c r="Q44">
+        <v>32</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>-4509</v>
+      </c>
+      <c r="U44">
+        <v>318</v>
+      </c>
+      <c r="V44">
+        <v>-55</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-170</v>
+      </c>
+      <c r="Y44">
+        <v>624</v>
+      </c>
+      <c r="Z44">
+        <v>655</v>
+      </c>
+      <c r="AA44">
+        <v>-286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>-162</v>
+      </c>
+      <c r="D45">
+        <v>6376</v>
+      </c>
+      <c r="E45">
+        <v>925</v>
+      </c>
+      <c r="F45">
+        <v>1335</v>
+      </c>
+      <c r="G45">
+        <v>6838</v>
+      </c>
+      <c r="H45">
+        <v>24719</v>
+      </c>
+      <c r="I45">
+        <v>1150</v>
+      </c>
+      <c r="J45">
+        <v>9552</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>8923</v>
+      </c>
+      <c r="O45">
+        <v>29552</v>
+      </c>
+      <c r="P45">
+        <v>11620</v>
+      </c>
+      <c r="Q45">
+        <v>-14</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>-4833</v>
+      </c>
+      <c r="U45">
+        <v>304</v>
+      </c>
+      <c r="V45">
+        <v>-307</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-75</v>
+      </c>
+      <c r="Y45">
+        <v>615</v>
+      </c>
+      <c r="Z45">
+        <v>866</v>
+      </c>
+      <c r="AA45">
+        <v>-162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>-1095</v>
+      </c>
+      <c r="D46">
+        <v>5956</v>
+      </c>
+      <c r="E46">
+        <v>902</v>
+      </c>
+      <c r="F46">
+        <v>1190</v>
+      </c>
+      <c r="G46">
+        <v>6757</v>
+      </c>
+      <c r="H46">
+        <v>23848</v>
+      </c>
+      <c r="I46">
+        <v>1496</v>
+      </c>
+      <c r="J46">
+        <v>9184</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>9119</v>
+      </c>
+      <c r="O46">
+        <v>30959</v>
+      </c>
+      <c r="P46">
+        <v>10702</v>
+      </c>
+      <c r="Q46">
+        <v>-21</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>80100</v>
+      </c>
+      <c r="T46">
+        <v>-7111</v>
+      </c>
+      <c r="U46">
+        <v>283</v>
+      </c>
+      <c r="V46">
+        <v>334</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>7</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>274</v>
+      </c>
+      <c r="AA46">
+        <v>-1095</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>-1660</v>
+      </c>
+      <c r="D47">
+        <v>6037</v>
+      </c>
+      <c r="E47">
+        <v>1056</v>
+      </c>
+      <c r="F47">
+        <v>1151</v>
+      </c>
+      <c r="G47">
+        <v>7778</v>
+      </c>
+      <c r="H47">
+        <v>24511</v>
+      </c>
+      <c r="I47">
+        <v>1847</v>
+      </c>
+      <c r="J47">
+        <v>8813</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-314</v>
+      </c>
+      <c r="N47">
+        <v>10054</v>
+      </c>
+      <c r="O47">
+        <v>33197</v>
+      </c>
+      <c r="P47">
+        <v>10788</v>
+      </c>
+      <c r="Q47">
+        <v>92</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>-8686</v>
+      </c>
+      <c r="U47">
+        <v>375</v>
+      </c>
+      <c r="V47">
+        <v>1067</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>10</v>
+      </c>
+      <c r="Y47">
+        <v>316</v>
+      </c>
+      <c r="Z47">
+        <v>-726</v>
+      </c>
+      <c r="AA47">
+        <v>-1660</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>-240</v>
+      </c>
+      <c r="D48">
+        <v>6452</v>
+      </c>
+      <c r="E48">
+        <v>1129</v>
+      </c>
+      <c r="F48">
+        <v>1515</v>
+      </c>
+      <c r="G48">
+        <v>7984</v>
+      </c>
+      <c r="H48">
+        <v>24726</v>
+      </c>
+      <c r="I48">
+        <v>1841</v>
+      </c>
+      <c r="J48">
+        <v>8632</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>13437</v>
+      </c>
+      <c r="O48">
+        <v>33694</v>
+      </c>
+      <c r="P48">
+        <v>10679</v>
+      </c>
+      <c r="Q48">
+        <v>-4</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>-8968</v>
+      </c>
+      <c r="U48">
+        <v>371</v>
+      </c>
+      <c r="V48">
+        <v>655</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-44</v>
+      </c>
+      <c r="Y48">
+        <v>393</v>
+      </c>
+      <c r="Z48">
+        <v>-164</v>
+      </c>
+      <c r="AA48">
+        <v>-241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>-239</v>
+      </c>
+      <c r="D49">
+        <v>6429</v>
+      </c>
+      <c r="E49">
+        <v>1160</v>
+      </c>
+      <c r="F49">
+        <v>1514</v>
+      </c>
+      <c r="G49">
+        <v>7303</v>
+      </c>
+      <c r="H49">
+        <v>23927</v>
+      </c>
+      <c r="I49">
+        <v>1686</v>
+      </c>
+      <c r="J49">
+        <v>8364</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>9989</v>
+      </c>
+      <c r="O49">
+        <v>31302</v>
+      </c>
+      <c r="P49">
+        <v>10300</v>
+      </c>
+      <c r="Q49">
+        <v>137</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>-7375</v>
+      </c>
+      <c r="U49">
+        <v>508</v>
+      </c>
+      <c r="V49">
+        <v>-155</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-104</v>
+      </c>
+      <c r="Y49">
+        <v>392</v>
+      </c>
+      <c r="Z49">
+        <v>805</v>
+      </c>
+      <c r="AA49">
+        <v>-238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>263</v>
+      </c>
+      <c r="D50">
+        <v>5937</v>
+      </c>
+      <c r="E50">
+        <v>1124</v>
+      </c>
+      <c r="F50">
+        <v>1317</v>
+      </c>
+      <c r="G50">
+        <v>7072</v>
+      </c>
+      <c r="H50">
+        <v>23510</v>
+      </c>
+      <c r="I50">
+        <v>1417</v>
+      </c>
+      <c r="J50">
+        <v>8314</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>9453</v>
+      </c>
+      <c r="O50">
+        <v>31497</v>
+      </c>
+      <c r="P50">
+        <v>9733</v>
+      </c>
+      <c r="Q50">
+        <v>-28</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>77750</v>
+      </c>
+      <c r="T50">
+        <v>-7987</v>
+      </c>
+      <c r="U50">
+        <v>480</v>
+      </c>
+      <c r="V50">
+        <v>-282</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>621</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>391</v>
+      </c>
+      <c r="AA50">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>-341</v>
+      </c>
+      <c r="D51">
+        <v>6098</v>
+      </c>
+      <c r="E51">
+        <v>1243</v>
+      </c>
+      <c r="F51">
+        <v>1340</v>
+      </c>
+      <c r="G51">
+        <v>7525</v>
+      </c>
+      <c r="H51">
+        <v>23852</v>
+      </c>
+      <c r="I51">
+        <v>1825</v>
+      </c>
+      <c r="J51">
+        <v>7844</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-394</v>
+      </c>
+      <c r="N51">
+        <v>10375</v>
+      </c>
+      <c r="O51">
+        <v>32228</v>
+      </c>
+      <c r="P51">
+        <v>9505</v>
+      </c>
+      <c r="Q51">
+        <v>126</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>-8376</v>
+      </c>
+      <c r="U51">
+        <v>606</v>
+      </c>
+      <c r="V51">
+        <v>700</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>514</v>
+      </c>
+      <c r="Y51">
+        <v>375</v>
+      </c>
+      <c r="Z51">
+        <v>-226</v>
+      </c>
+      <c r="AA51">
+        <v>-341</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>219</v>
+      </c>
+      <c r="D52">
+        <v>6449</v>
+      </c>
+      <c r="E52">
+        <v>1376</v>
+      </c>
+      <c r="F52">
+        <v>1735</v>
+      </c>
+      <c r="G52">
+        <v>9635</v>
+      </c>
+      <c r="H52">
+        <v>26216</v>
+      </c>
+      <c r="I52">
+        <v>1894</v>
+      </c>
+      <c r="J52">
+        <v>9162</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>11056</v>
+      </c>
+      <c r="O52">
+        <v>34432</v>
+      </c>
+      <c r="P52">
+        <v>10856</v>
+      </c>
+      <c r="Q52">
+        <v>-2</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>-8216</v>
+      </c>
+      <c r="U52">
+        <v>604</v>
+      </c>
+      <c r="V52">
+        <v>1170</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>1725</v>
+      </c>
+      <c r="Y52">
+        <v>367</v>
+      </c>
+      <c r="Z52">
+        <v>-1968</v>
+      </c>
+      <c r="AA52">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>289</v>
+      </c>
+      <c r="D53">
+        <v>6828</v>
+      </c>
+      <c r="E53">
+        <v>1340</v>
+      </c>
+      <c r="F53">
+        <v>1953</v>
+      </c>
+      <c r="G53">
+        <v>10241</v>
+      </c>
+      <c r="H53">
+        <v>26780</v>
+      </c>
+      <c r="I53">
+        <v>1726</v>
+      </c>
+      <c r="J53">
+        <v>9993</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>10517</v>
+      </c>
+      <c r="O53">
+        <v>34702</v>
+      </c>
+      <c r="P53">
+        <v>11697</v>
+      </c>
+      <c r="Q53">
+        <v>113</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>-7922</v>
+      </c>
+      <c r="U53">
+        <v>717</v>
+      </c>
+      <c r="V53">
+        <v>17</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>1203</v>
+      </c>
+      <c r="Y53">
+        <v>345</v>
+      </c>
+      <c r="Z53">
+        <v>-440</v>
+      </c>
+      <c r="AA53">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>-2001</v>
+      </c>
+      <c r="D54">
+        <v>7337</v>
+      </c>
+      <c r="E54">
+        <v>1560</v>
+      </c>
+      <c r="F54">
+        <v>1890</v>
+      </c>
+      <c r="G54">
+        <v>14323</v>
+      </c>
+      <c r="H54">
+        <v>42278</v>
+      </c>
+      <c r="I54">
+        <v>1368</v>
+      </c>
+      <c r="J54">
+        <v>19186</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>13806</v>
+      </c>
+      <c r="O54">
+        <v>45009</v>
+      </c>
+      <c r="P54">
+        <v>20632</v>
+      </c>
+      <c r="Q54">
+        <v>423</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>110400</v>
+      </c>
+      <c r="T54">
+        <v>-2731</v>
+      </c>
+      <c r="U54">
+        <v>1140</v>
+      </c>
+      <c r="V54">
+        <v>-1212</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>357</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>1453</v>
+      </c>
+      <c r="AA54">
+        <v>-2001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>480</v>
+      </c>
+      <c r="D55">
+        <v>9995</v>
+      </c>
+      <c r="E55">
+        <v>2008</v>
+      </c>
+      <c r="F55">
+        <v>2346</v>
+      </c>
+      <c r="G55">
+        <v>15193</v>
+      </c>
+      <c r="H55">
+        <v>43737</v>
+      </c>
+      <c r="I55">
+        <v>1646</v>
+      </c>
+      <c r="J55">
+        <v>15833</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-501</v>
+      </c>
+      <c r="N55">
+        <v>15079</v>
+      </c>
+      <c r="O55">
+        <v>42642</v>
+      </c>
+      <c r="P55">
+        <v>17274</v>
+      </c>
+      <c r="Q55">
+        <v>119</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1095</v>
+      </c>
+      <c r="U55">
+        <v>1259</v>
+      </c>
+      <c r="V55">
+        <v>1256</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-194</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-294</v>
+      </c>
+      <c r="AA55">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>863</v>
+      </c>
+      <c r="D56">
+        <v>11355</v>
+      </c>
+      <c r="E56">
+        <v>1981</v>
+      </c>
+      <c r="F56">
+        <v>3440</v>
+      </c>
+      <c r="G56">
+        <v>14966</v>
+      </c>
+      <c r="H56">
+        <v>44811</v>
+      </c>
+      <c r="I56">
+        <v>1653</v>
+      </c>
+      <c r="J56">
+        <v>15205</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>15088</v>
+      </c>
+      <c r="O56">
+        <v>40725</v>
+      </c>
+      <c r="P56">
+        <v>16728</v>
+      </c>
+      <c r="Q56">
+        <v>-49</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>4086</v>
+      </c>
+      <c r="U56">
+        <v>1210</v>
+      </c>
+      <c r="V56">
+        <v>1381</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-26</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>156</v>
+      </c>
+      <c r="AA56">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>942</v>
+      </c>
+      <c r="D57">
+        <v>11139</v>
+      </c>
+      <c r="E57">
+        <v>1961</v>
+      </c>
+      <c r="F57">
+        <v>3241</v>
+      </c>
+      <c r="G57">
+        <v>13450</v>
+      </c>
+      <c r="H57">
+        <v>44173</v>
+      </c>
+      <c r="I57">
+        <v>1498</v>
+      </c>
+      <c r="J57">
+        <v>15651</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>13888</v>
+      </c>
+      <c r="O57">
+        <v>39202</v>
+      </c>
+      <c r="P57">
+        <v>17090</v>
+      </c>
+      <c r="Q57">
+        <v>-32</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>111852</v>
+      </c>
+      <c r="T57">
+        <v>4971</v>
+      </c>
+      <c r="U57">
+        <v>1178</v>
+      </c>
+      <c r="V57">
+        <v>-361</v>
+      </c>
+      <c r="W57">
+        <v>-72</v>
+      </c>
+      <c r="X57">
+        <v>107</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>1528</v>
+      </c>
+      <c r="AA57">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>597</v>
+      </c>
+      <c r="D58">
+        <v>10160</v>
+      </c>
+      <c r="E58">
+        <v>1771</v>
+      </c>
+      <c r="F58">
+        <v>3011</v>
+      </c>
+      <c r="G58">
+        <v>11750</v>
+      </c>
+      <c r="H58">
+        <v>43225</v>
+      </c>
+      <c r="I58">
+        <v>1377</v>
+      </c>
+      <c r="J58">
+        <v>16043</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>13404</v>
+      </c>
+      <c r="O58">
+        <v>41204</v>
+      </c>
+      <c r="P58">
+        <v>17720</v>
+      </c>
+      <c r="Q58">
+        <v>-184</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>113300</v>
+      </c>
+      <c r="T58">
+        <v>2021</v>
+      </c>
+      <c r="U58">
+        <v>994</v>
+      </c>
+      <c r="V58">
+        <v>804</v>
+      </c>
+      <c r="W58">
+        <v>-72</v>
+      </c>
+      <c r="X58">
+        <v>-202</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>409</v>
+      </c>
+      <c r="AA58">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>932</v>
+      </c>
+      <c r="D59">
+        <v>9827</v>
+      </c>
+      <c r="E59">
+        <v>1826</v>
+      </c>
+      <c r="F59">
+        <v>3236</v>
+      </c>
+      <c r="G59">
+        <v>14129</v>
+      </c>
+      <c r="H59">
+        <v>46754</v>
+      </c>
+      <c r="I59">
+        <v>1587</v>
+      </c>
+      <c r="J59">
+        <v>17638</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-746</v>
+      </c>
+      <c r="N59">
+        <v>14233</v>
+      </c>
+      <c r="O59">
+        <v>43990</v>
+      </c>
+      <c r="P59">
+        <v>18922</v>
+      </c>
+      <c r="Q59">
+        <v>54</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>116800</v>
+      </c>
+      <c r="T59">
+        <v>2764</v>
+      </c>
+      <c r="U59">
+        <v>1048</v>
+      </c>
+      <c r="V59">
+        <v>2494</v>
+      </c>
+      <c r="W59">
+        <v>-70</v>
+      </c>
+      <c r="X59">
+        <v>762</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-1814</v>
+      </c>
+      <c r="AA59">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>1704</v>
+      </c>
+      <c r="D60">
+        <v>10827</v>
+      </c>
+      <c r="E60">
+        <v>1892</v>
+      </c>
+      <c r="F60">
+        <v>3873</v>
+      </c>
+      <c r="G60">
+        <v>14109</v>
+      </c>
+      <c r="H60">
+        <v>47868</v>
+      </c>
+      <c r="I60">
+        <v>1683</v>
+      </c>
+      <c r="J60">
+        <v>17152</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>15045</v>
+      </c>
+      <c r="O60">
+        <v>44232</v>
+      </c>
+      <c r="P60">
+        <v>18794</v>
+      </c>
+      <c r="Q60">
+        <v>-96</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>120400</v>
+      </c>
+      <c r="T60">
+        <v>3636</v>
+      </c>
+      <c r="U60">
+        <v>952</v>
+      </c>
+      <c r="V60">
+        <v>2347</v>
+      </c>
+      <c r="W60">
+        <v>-70</v>
+      </c>
+      <c r="X60">
+        <v>-950</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>209</v>
+      </c>
+      <c r="AA60">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>1693</v>
+      </c>
+      <c r="D61">
+        <v>10706</v>
+      </c>
+      <c r="E61">
+        <v>1828</v>
+      </c>
+      <c r="F61">
+        <v>3997</v>
+      </c>
+      <c r="G61">
+        <v>13706</v>
+      </c>
+      <c r="H61">
+        <v>48715</v>
+      </c>
+      <c r="I61">
+        <v>1525</v>
+      </c>
+      <c r="J61">
+        <v>18849</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>14161</v>
+      </c>
+      <c r="O61">
+        <v>44953</v>
+      </c>
+      <c r="P61">
+        <v>20561</v>
+      </c>
+      <c r="Q61">
+        <v>64</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>119000</v>
+      </c>
+      <c r="T61">
+        <v>3762</v>
+      </c>
+      <c r="U61">
+        <v>1016</v>
+      </c>
+      <c r="V61">
+        <v>1180</v>
+      </c>
+      <c r="W61">
+        <v>-66</v>
+      </c>
+      <c r="X61">
+        <v>221</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>107</v>
+      </c>
+      <c r="AA61">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>3281</v>
+      </c>
+      <c r="D62">
+        <v>9630</v>
+      </c>
+      <c r="E62">
+        <v>1425</v>
+      </c>
+      <c r="F62">
+        <v>3308</v>
+      </c>
+      <c r="G62">
+        <v>9985</v>
+      </c>
+      <c r="H62">
+        <v>48415</v>
+      </c>
+      <c r="I62">
+        <v>1563</v>
+      </c>
+      <c r="J62">
+        <v>18330</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>13605</v>
+      </c>
+      <c r="O62">
+        <v>42780</v>
+      </c>
+      <c r="P62">
+        <v>20561</v>
+      </c>
+      <c r="Q62">
+        <v>-626</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>118500</v>
+      </c>
+      <c r="T62">
+        <v>5635</v>
+      </c>
+      <c r="U62">
+        <v>390</v>
+      </c>
+      <c r="V62">
+        <v>228</v>
+      </c>
+      <c r="W62">
+        <v>-72</v>
+      </c>
+      <c r="X62">
+        <v>-1292</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>1941</v>
+      </c>
+      <c r="AA62">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>700</v>
+      </c>
+      <c r="D63">
+        <v>9435</v>
+      </c>
+      <c r="E63">
+        <v>1450</v>
+      </c>
+      <c r="F63">
+        <v>3180</v>
+      </c>
+      <c r="G63">
+        <v>10802</v>
+      </c>
+      <c r="H63">
+        <v>49909</v>
+      </c>
+      <c r="I63">
+        <v>1913</v>
+      </c>
+      <c r="J63">
+        <v>19134</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-310</v>
+      </c>
+      <c r="N63">
+        <v>15277</v>
+      </c>
+      <c r="O63">
+        <v>45199</v>
+      </c>
+      <c r="P63">
+        <v>21744</v>
+      </c>
+      <c r="Q63">
+        <v>105</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>120200</v>
+      </c>
+      <c r="T63">
+        <v>4710</v>
+      </c>
+      <c r="U63">
+        <v>495</v>
+      </c>
+      <c r="V63">
+        <v>2620</v>
+      </c>
+      <c r="W63">
+        <v>-61</v>
+      </c>
+      <c r="X63">
+        <v>-401</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-565</v>
+      </c>
+      <c r="AA63">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>950</v>
+      </c>
+      <c r="D64">
+        <v>10363</v>
+      </c>
+      <c r="E64">
+        <v>1593</v>
+      </c>
+      <c r="F64">
+        <v>3651</v>
+      </c>
+      <c r="G64">
+        <v>11184</v>
+      </c>
+      <c r="H64">
+        <v>51051</v>
+      </c>
+      <c r="I64">
+        <v>1944</v>
+      </c>
+      <c r="J64">
+        <v>21131</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>14917</v>
+      </c>
+      <c r="O64">
+        <v>46739</v>
+      </c>
+      <c r="P64">
+        <v>22846</v>
+      </c>
+      <c r="Q64">
+        <v>-49</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>123500</v>
+      </c>
+      <c r="T64">
+        <v>4312</v>
+      </c>
+      <c r="U64">
+        <v>446</v>
+      </c>
+      <c r="V64">
+        <v>2213</v>
+      </c>
+      <c r="W64">
+        <v>-58</v>
+      </c>
+      <c r="X64">
+        <v>-605</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-230</v>
+      </c>
+      <c r="AA64">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>737</v>
+      </c>
+      <c r="D65">
+        <v>10594</v>
+      </c>
+      <c r="E65">
+        <v>1703</v>
+      </c>
+      <c r="F65">
+        <v>3653</v>
+      </c>
+      <c r="G65">
+        <v>11048</v>
+      </c>
+      <c r="H65">
+        <v>51108</v>
+      </c>
+      <c r="I65">
+        <v>1673</v>
+      </c>
+      <c r="J65">
+        <v>21545</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>14533</v>
+      </c>
+      <c r="O65">
+        <v>46717</v>
+      </c>
+      <c r="P65">
+        <v>23343</v>
+      </c>
+      <c r="Q65">
+        <v>-65</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>121800</v>
+      </c>
+      <c r="T65">
+        <v>4391</v>
+      </c>
+      <c r="U65">
+        <v>381</v>
+      </c>
+      <c r="V65">
+        <v>1064</v>
+      </c>
+      <c r="W65">
+        <v>-53</v>
+      </c>
+      <c r="X65">
+        <v>-258</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>304</v>
+      </c>
+      <c r="AA65">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>289</v>
+      </c>
+      <c r="D66">
+        <v>9789</v>
+      </c>
+      <c r="E66">
+        <v>1594</v>
+      </c>
+      <c r="F66">
+        <v>2896</v>
+      </c>
+      <c r="G66">
+        <v>10324</v>
+      </c>
+      <c r="H66">
+        <v>51274</v>
+      </c>
+      <c r="I66">
+        <v>1592</v>
+      </c>
+      <c r="J66">
+        <v>22489</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>13872</v>
+      </c>
+      <c r="O66">
+        <v>47489</v>
+      </c>
+      <c r="P66">
+        <v>24344</v>
+      </c>
+      <c r="Q66">
+        <v>-59</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>122300</v>
+      </c>
+      <c r="T66">
+        <v>3785</v>
+      </c>
+      <c r="U66">
+        <v>322</v>
+      </c>
+      <c r="V66">
+        <v>627</v>
+      </c>
+      <c r="W66">
+        <v>-52</v>
+      </c>
+      <c r="X66">
+        <v>370</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>342</v>
+      </c>
+      <c r="AA66">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>340</v>
+      </c>
+      <c r="D67">
+        <v>9820</v>
+      </c>
+      <c r="E67">
+        <v>1397</v>
+      </c>
+      <c r="F67">
+        <v>2761</v>
+      </c>
+      <c r="G67">
+        <v>10626</v>
+      </c>
+      <c r="H67">
+        <v>52627</v>
+      </c>
+      <c r="I67">
+        <v>1882</v>
+      </c>
+      <c r="J67">
+        <v>22829</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-686</v>
+      </c>
+      <c r="N67">
+        <v>15286</v>
+      </c>
+      <c r="O67">
+        <v>49170</v>
+      </c>
+      <c r="P67">
+        <v>24543</v>
+      </c>
+      <c r="Q67">
+        <v>31</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>124300</v>
+      </c>
+      <c r="T67">
+        <v>3457</v>
+      </c>
+      <c r="U67">
+        <v>374</v>
+      </c>
+      <c r="V67">
+        <v>2250</v>
+      </c>
+      <c r="W67">
+        <v>-51</v>
+      </c>
+      <c r="X67">
+        <v>-349</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-262</v>
+      </c>
+      <c r="AA67">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>864</v>
+      </c>
+      <c r="D68">
+        <v>11227</v>
+      </c>
+      <c r="E68">
+        <v>1543</v>
+      </c>
+      <c r="F68">
+        <v>3820</v>
+      </c>
+      <c r="G68">
+        <v>11016</v>
+      </c>
+      <c r="H68">
+        <v>53336</v>
+      </c>
+      <c r="I68">
+        <v>1924</v>
+      </c>
+      <c r="J68">
+        <v>22525</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>16112</v>
+      </c>
+      <c r="O68">
+        <v>49621</v>
+      </c>
+      <c r="P68">
+        <v>24859</v>
+      </c>
+      <c r="Q68">
+        <v>22</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>128300</v>
+      </c>
+      <c r="T68">
+        <v>3715</v>
+      </c>
+      <c r="U68">
+        <v>386</v>
+      </c>
+      <c r="V68">
+        <v>1688</v>
+      </c>
+      <c r="W68">
+        <v>-51</v>
+      </c>
+      <c r="X68">
+        <v>-272</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-194</v>
+      </c>
+      <c r="AA68">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>661</v>
+      </c>
+      <c r="D69">
+        <v>10965</v>
+      </c>
+      <c r="E69">
+        <v>1700</v>
+      </c>
+      <c r="F69">
+        <v>3479</v>
+      </c>
+      <c r="G69">
+        <v>10002</v>
+      </c>
+      <c r="H69">
+        <v>52401</v>
+      </c>
+      <c r="I69">
+        <v>1638</v>
+      </c>
+      <c r="J69">
+        <v>22217</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>15307</v>
+      </c>
+      <c r="O69">
+        <v>48453</v>
+      </c>
+      <c r="P69">
+        <v>24684</v>
+      </c>
+      <c r="Q69">
+        <v>-45</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>127600</v>
+      </c>
+      <c r="T69">
+        <v>3948</v>
+      </c>
+      <c r="U69">
+        <v>340</v>
+      </c>
+      <c r="V69">
+        <v>369</v>
+      </c>
+      <c r="W69">
+        <v>-48</v>
+      </c>
+      <c r="X69">
+        <v>-599</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>874</v>
+      </c>
+      <c r="AA69">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-583</v>
+      </c>
+      <c r="D70">
+        <v>10611</v>
+      </c>
+      <c r="E70">
+        <v>1752</v>
+      </c>
+      <c r="F70">
+        <v>3064</v>
+      </c>
+      <c r="G70">
+        <v>9146</v>
+      </c>
+      <c r="H70">
+        <v>52785</v>
+      </c>
+      <c r="I70">
+        <v>1688</v>
+      </c>
+      <c r="J70">
+        <v>21818</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>15358</v>
+      </c>
+      <c r="O70">
+        <v>53565</v>
+      </c>
+      <c r="P70">
+        <v>25065</v>
+      </c>
+      <c r="Q70">
+        <v>-45</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>126600</v>
+      </c>
+      <c r="T70">
+        <v>-780</v>
+      </c>
+      <c r="U70">
+        <v>295</v>
+      </c>
+      <c r="V70">
+        <v>437</v>
+      </c>
+      <c r="W70">
+        <v>-48</v>
+      </c>
+      <c r="X70">
+        <v>75</v>
+      </c>
+      <c r="Y70">
+        <v>693</v>
+      </c>
+      <c r="Z70">
+        <v>661</v>
+      </c>
+      <c r="AA70">
+        <v>-583</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>159</v>
+      </c>
+      <c r="D71">
+        <v>10401</v>
+      </c>
+      <c r="E71">
+        <v>1809</v>
+      </c>
+      <c r="F71">
+        <v>2753</v>
+      </c>
+      <c r="G71">
+        <v>9673</v>
+      </c>
+      <c r="H71">
+        <v>53280</v>
+      </c>
+      <c r="I71">
+        <v>1953</v>
+      </c>
+      <c r="J71">
+        <v>21946</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-568</v>
+      </c>
+      <c r="N71">
+        <v>17008</v>
+      </c>
+      <c r="O71">
+        <v>54298</v>
+      </c>
+      <c r="P71">
+        <v>24739</v>
+      </c>
+      <c r="Q71">
+        <v>2</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>128600</v>
+      </c>
+      <c r="T71">
+        <v>-1018</v>
+      </c>
+      <c r="U71">
+        <v>297</v>
+      </c>
+      <c r="V71">
+        <v>1800</v>
+      </c>
+      <c r="W71">
+        <v>-48</v>
+      </c>
+      <c r="X71">
+        <v>-842</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-223</v>
+      </c>
+      <c r="AA71">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>557</v>
+      </c>
+      <c r="D72">
+        <v>11643</v>
+      </c>
+      <c r="E72">
+        <v>1941</v>
+      </c>
+      <c r="F72">
+        <v>3416</v>
+      </c>
+      <c r="G72">
+        <v>9176</v>
+      </c>
+      <c r="H72">
+        <v>52622</v>
+      </c>
+      <c r="I72">
+        <v>2053</v>
+      </c>
+      <c r="J72">
+        <v>21863</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>16669</v>
+      </c>
+      <c r="O72">
+        <v>53491</v>
+      </c>
+      <c r="P72">
+        <v>24076</v>
+      </c>
+      <c r="Q72">
+        <v>-95</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>131600</v>
+      </c>
+      <c r="T72">
+        <v>-869</v>
+      </c>
+      <c r="U72">
+        <v>293</v>
+      </c>
+      <c r="V72">
+        <v>1094</v>
+      </c>
+      <c r="W72">
+        <v>-46</v>
+      </c>
+      <c r="X72">
+        <v>-1110</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>618</v>
+      </c>
+      <c r="AA72">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>372</v>
+      </c>
+      <c r="D73">
+        <v>11559</v>
+      </c>
+      <c r="E73">
+        <v>2170</v>
+      </c>
+      <c r="F73">
+        <v>3092</v>
+      </c>
+      <c r="G73">
+        <v>9498</v>
+      </c>
+      <c r="H73">
+        <v>52635</v>
+      </c>
+      <c r="I73">
+        <v>1886</v>
+      </c>
+      <c r="J73">
+        <v>22274</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>16348</v>
+      </c>
+      <c r="O73">
+        <v>53203</v>
+      </c>
+      <c r="P73">
+        <v>24767</v>
+      </c>
+      <c r="Q73">
+        <v>9</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>130500</v>
+      </c>
+      <c r="T73">
+        <v>-568</v>
+      </c>
+      <c r="U73">
+        <v>303</v>
+      </c>
+      <c r="V73">
+        <v>-77</v>
+      </c>
+      <c r="W73">
+        <v>-46</v>
+      </c>
+      <c r="X73">
+        <v>634</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-169</v>
+      </c>
+      <c r="AA73">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>324</v>
+      </c>
+      <c r="D74">
+        <v>10938</v>
+      </c>
+      <c r="E74">
+        <v>1706</v>
+      </c>
+      <c r="F74">
+        <v>2941</v>
+      </c>
+      <c r="G74">
+        <v>8637</v>
+      </c>
+      <c r="H74">
+        <v>60580</v>
+      </c>
+      <c r="I74">
+        <v>1773</v>
+      </c>
+      <c r="J74">
+        <v>20566</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>18096</v>
+      </c>
+      <c r="O74">
+        <v>60749</v>
+      </c>
+      <c r="P74">
+        <v>34029</v>
+      </c>
+      <c r="Q74">
+        <v>-28</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>128900</v>
+      </c>
+      <c r="T74">
+        <v>-169</v>
+      </c>
+      <c r="U74">
+        <v>275</v>
+      </c>
+      <c r="V74">
+        <v>716</v>
+      </c>
+      <c r="W74">
+        <v>-46</v>
+      </c>
+      <c r="X74">
+        <v>-354</v>
+      </c>
+      <c r="Y74">
+        <v>8515</v>
+      </c>
+      <c r="Z74">
+        <v>274</v>
+      </c>
+      <c r="AA74">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>185</v>
+      </c>
+      <c r="D75">
+        <v>10584</v>
+      </c>
+      <c r="E75">
+        <v>1876</v>
+      </c>
+      <c r="F75">
+        <v>2660</v>
+      </c>
+      <c r="G75">
+        <v>8654</v>
+      </c>
+      <c r="H75">
+        <v>60787</v>
+      </c>
+      <c r="I75">
+        <v>2139</v>
+      </c>
+      <c r="J75">
+        <v>20065</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-849</v>
+      </c>
+      <c r="N75">
+        <v>19849</v>
+      </c>
+      <c r="O75">
+        <v>61423</v>
+      </c>
+      <c r="P75">
+        <v>33444</v>
+      </c>
+      <c r="Q75">
+        <v>62</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>129800</v>
+      </c>
+      <c r="T75">
+        <v>-636</v>
+      </c>
+      <c r="U75">
+        <v>337</v>
+      </c>
+      <c r="V75">
+        <v>1651</v>
+      </c>
+      <c r="W75">
+        <v>-46</v>
+      </c>
+      <c r="X75">
+        <v>-1109</v>
+      </c>
+      <c r="Y75">
+        <v>8380</v>
+      </c>
+      <c r="Z75">
+        <v>481</v>
+      </c>
+      <c r="AA75">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>662</v>
+      </c>
+      <c r="D76">
+        <v>11960</v>
+      </c>
+      <c r="E76">
+        <v>1943</v>
+      </c>
+      <c r="F76">
+        <v>3481</v>
+      </c>
+      <c r="G76">
+        <v>9850</v>
+      </c>
+      <c r="H76">
+        <v>61967</v>
+      </c>
+      <c r="I76">
+        <v>2118</v>
+      </c>
+      <c r="J76">
+        <v>21222</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>20123</v>
+      </c>
+      <c r="O76">
+        <v>61989</v>
+      </c>
+      <c r="P76">
+        <v>34748</v>
+      </c>
+      <c r="Q76">
+        <v>-18</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>133800</v>
+      </c>
+      <c r="T76">
+        <v>-22</v>
+      </c>
+      <c r="U76">
+        <v>319</v>
+      </c>
+      <c r="V76">
+        <v>736</v>
+      </c>
+      <c r="W76">
+        <v>-44</v>
+      </c>
+      <c r="X76">
+        <v>1179</v>
+      </c>
+      <c r="Y76">
+        <v>8387</v>
+      </c>
+      <c r="Z76">
+        <v>-1071</v>
+      </c>
+      <c r="AA76">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>425</v>
+      </c>
+      <c r="D77">
+        <v>11911</v>
+      </c>
+      <c r="E77">
+        <v>1850</v>
+      </c>
+      <c r="F77">
+        <v>3348</v>
+      </c>
+      <c r="G77">
+        <v>9572</v>
+      </c>
+      <c r="H77">
+        <v>61175</v>
+      </c>
+      <c r="I77">
+        <v>1932</v>
+      </c>
+      <c r="J77">
+        <v>21055</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>19560</v>
+      </c>
+      <c r="O77">
+        <v>61015</v>
+      </c>
+      <c r="P77">
+        <v>34440</v>
+      </c>
+      <c r="Q77">
+        <v>-7</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>131900</v>
+      </c>
+      <c r="T77">
+        <v>160</v>
+      </c>
+      <c r="U77">
+        <v>312</v>
+      </c>
+      <c r="V77">
+        <v>828</v>
+      </c>
+      <c r="W77">
+        <v>-45</v>
+      </c>
+      <c r="X77">
+        <v>-366</v>
+      </c>
+      <c r="Y77">
+        <v>8105</v>
+      </c>
+      <c r="Z77">
+        <v>236</v>
+      </c>
+      <c r="AA77">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>414</v>
+      </c>
+      <c r="D78">
+        <v>11313</v>
+      </c>
+      <c r="E78">
+        <v>1750</v>
+      </c>
+      <c r="F78">
+        <v>3072</v>
+      </c>
+      <c r="G78">
+        <v>8206</v>
+      </c>
+      <c r="H78">
+        <v>59995</v>
+      </c>
+      <c r="I78">
+        <v>2062</v>
+      </c>
+      <c r="J78">
+        <v>20896</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>18311</v>
+      </c>
+      <c r="O78">
+        <v>60113</v>
+      </c>
+      <c r="P78">
+        <v>33444</v>
+      </c>
+      <c r="Q78">
+        <v>-33</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>133700</v>
+      </c>
+      <c r="T78">
+        <v>-118</v>
+      </c>
+      <c r="U78">
+        <v>280</v>
+      </c>
+      <c r="V78">
+        <v>600</v>
+      </c>
+      <c r="W78">
+        <v>-43</v>
+      </c>
+      <c r="X78">
+        <v>-1272</v>
+      </c>
+      <c r="Y78">
+        <v>7979</v>
+      </c>
+      <c r="Z78">
+        <v>1314</v>
+      </c>
+      <c r="AA78">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>-2241</v>
+      </c>
+      <c r="D79">
+        <v>8515</v>
+      </c>
+      <c r="E79">
+        <v>1020</v>
+      </c>
+      <c r="F79">
+        <v>826</v>
+      </c>
+      <c r="G79">
+        <v>7175</v>
+      </c>
+      <c r="H79">
+        <v>58580</v>
+      </c>
+      <c r="I79">
+        <v>1648</v>
+      </c>
+      <c r="J79">
+        <v>21033</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-926</v>
+      </c>
+      <c r="N79">
+        <v>19213</v>
+      </c>
+      <c r="O79">
+        <v>61216</v>
+      </c>
+      <c r="P79">
+        <v>34073</v>
+      </c>
+      <c r="Q79">
+        <v>196</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>131500</v>
+      </c>
+      <c r="T79">
+        <v>-2636</v>
+      </c>
+      <c r="U79">
+        <v>474</v>
+      </c>
+      <c r="V79">
+        <v>-168</v>
+      </c>
+      <c r="W79">
+        <v>-43</v>
+      </c>
+      <c r="X79">
+        <v>526</v>
+      </c>
+      <c r="Y79">
+        <v>7770</v>
+      </c>
+      <c r="Z79">
+        <v>417</v>
+      </c>
+      <c r="AA79">
+        <v>-2241</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>-2067</v>
+      </c>
+      <c r="D80">
+        <v>1622</v>
+      </c>
+      <c r="E80">
+        <v>879</v>
+      </c>
+      <c r="F80">
+        <v>-2950</v>
+      </c>
+      <c r="G80">
+        <v>13789</v>
+      </c>
+      <c r="H80">
+        <v>64544</v>
+      </c>
+      <c r="I80">
+        <v>1175</v>
+      </c>
+      <c r="J80">
+        <v>28193</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>18000</v>
+      </c>
+      <c r="O80">
+        <v>67713</v>
+      </c>
+      <c r="P80">
+        <v>40049</v>
+      </c>
+      <c r="Q80">
+        <v>-19</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>107400</v>
+      </c>
+      <c r="T80">
+        <v>-3169</v>
+      </c>
+      <c r="U80">
+        <v>462</v>
+      </c>
+      <c r="V80">
+        <v>-908</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>7688</v>
+      </c>
+      <c r="Y80">
+        <v>7477</v>
+      </c>
+      <c r="Z80">
+        <v>-6222</v>
+      </c>
+      <c r="AA80">
+        <v>-2067</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>-2399</v>
+      </c>
+      <c r="D81">
+        <v>3173</v>
+      </c>
+      <c r="E81">
+        <v>1135</v>
+      </c>
+      <c r="F81">
+        <v>-2489</v>
+      </c>
+      <c r="G81">
+        <v>12340</v>
+      </c>
+      <c r="H81">
+        <v>62773</v>
+      </c>
+      <c r="I81">
+        <v>1077</v>
+      </c>
+      <c r="J81">
+        <v>29593</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>16584</v>
+      </c>
+      <c r="O81">
+        <v>68301</v>
+      </c>
+      <c r="P81">
+        <v>41205</v>
+      </c>
+      <c r="Q81">
+        <v>-170</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>110500</v>
+      </c>
+      <c r="T81">
+        <v>-5528</v>
+      </c>
+      <c r="U81">
+        <v>253</v>
+      </c>
+      <c r="V81">
+        <v>-2604</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>1511</v>
+      </c>
+      <c r="Y81">
+        <v>7166</v>
+      </c>
+      <c r="Z81">
+        <v>1322</v>
+      </c>
+      <c r="AA81">
+        <v>-2399</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>-2178</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>4028</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1342</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>-923</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>11095</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>62008</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>1196</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>29324</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>16569</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>68875</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>41021</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>102</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>102700</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>-6867</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>245</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>-2863</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>1269</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>7249</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>1454</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>-2178</v>
       </c>
     </row>
